--- a/data/hotels_by_city/Dallas/Dallas_shard_564.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_564.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,294 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r567781259-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>99353</t>
+  </si>
+  <si>
+    <t>567781259</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>This Motel 6 is Okay, minus the noise and the sewer smell in the restroom. I don't think they should accept dogs because I don't think housekeeping is equipped  to clean those rooms properly.  Although the housekeeper was nice, she didn't understand English.  So I had to download a translation app to communicate with her.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r539736617-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>539736617</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Not a Place I Feel Safe</t>
+  </si>
+  <si>
+    <t>This location is a bargain at $43 per night. However, the trade off is more than lack of amenities. It may be also lack security.
+The first time I did laundry here, a man resembling my acquaintance, Tremaine Clark, in stature and build, rushed past me as I entered the door, addressed me as, "Sweetheart" and proceeded to the vending machine with questions about quarters.
+I left the room that he clearly had no key for, and waited and watched until he left the area with the machines.
+When I finished my laundry after having left it unattended, I found a pair of men's underwear in the dryer which I definitely hadn't put there.
+The second time I did laundry from 10:00-12:00 on Wednesday, November 8, there was a parade of about 5 different suspicious acting individuals.  People in the laundry room talking to me and not doing laundry, and trying to get in without a key and pacing before leaving.  The owner agreed to review the video tapes of this session, but did not agree that people carrying clean clothes on their arm in the laundry and insisting on speaking with me, or rummaging through machines having brought no clothes to wash at all, seemed in any way suspicious.
+The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my...This location is a bargain at $43 per night. However, the trade off is more than lack of amenities. It may be also lack security.The first time I did laundry here, a man resembling my acquaintance, Tremaine Clark, in stature and build, rushed past me as I entered the door, addressed me as, "Sweetheart" and proceeded to the vending machine with questions about quarters.I left the room that he clearly had no key for, and waited and watched until he left the area with the machines.When I finished my laundry after having left it unattended, I found a pair of men's underwear in the dryer which I definitely hadn't put there.The second time I did laundry from 10:00-12:00 on Wednesday, November 8, there was a parade of about 5 different suspicious acting individuals.  People in the laundry room talking to me and not doing laundry, and trying to get in without a key and pacing before leaving.  The owner agreed to review the video tapes of this session, but did not agree that people carrying clean clothes on their arm in the laundry and insisting on speaking with me, or rummaging through machines having brought no clothes to wash at all, seemed in any way suspicious.The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my first time to find laundry machines in a Motel 6 that weren't working correctly, so I found out that the company that services them does not have same day repair, and mails people checks for the dollar's worth of quarters they report to have lost.As to amenities here, there is a charge for wifi.  My room as no refridgerator or microwave.  It is roomy enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This location is a bargain at $43 per night. However, the trade off is more than lack of amenities. It may be also lack security.
+The first time I did laundry here, a man resembling my acquaintance, Tremaine Clark, in stature and build, rushed past me as I entered the door, addressed me as, "Sweetheart" and proceeded to the vending machine with questions about quarters.
+I left the room that he clearly had no key for, and waited and watched until he left the area with the machines.
+When I finished my laundry after having left it unattended, I found a pair of men's underwear in the dryer which I definitely hadn't put there.
+The second time I did laundry from 10:00-12:00 on Wednesday, November 8, there was a parade of about 5 different suspicious acting individuals.  People in the laundry room talking to me and not doing laundry, and trying to get in without a key and pacing before leaving.  The owner agreed to review the video tapes of this session, but did not agree that people carrying clean clothes on their arm in the laundry and insisting on speaking with me, or rummaging through machines having brought no clothes to wash at all, seemed in any way suspicious.
+The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my...This location is a bargain at $43 per night. However, the trade off is more than lack of amenities. It may be also lack security.The first time I did laundry here, a man resembling my acquaintance, Tremaine Clark, in stature and build, rushed past me as I entered the door, addressed me as, "Sweetheart" and proceeded to the vending machine with questions about quarters.I left the room that he clearly had no key for, and waited and watched until he left the area with the machines.When I finished my laundry after having left it unattended, I found a pair of men's underwear in the dryer which I definitely hadn't put there.The second time I did laundry from 10:00-12:00 on Wednesday, November 8, there was a parade of about 5 different suspicious acting individuals.  People in the laundry room talking to me and not doing laundry, and trying to get in without a key and pacing before leaving.  The owner agreed to review the video tapes of this session, but did not agree that people carrying clean clothes on their arm in the laundry and insisting on speaking with me, or rummaging through machines having brought no clothes to wash at all, seemed in any way suspicious.The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my first time to find laundry machines in a Motel 6 that weren't working correctly, so I found out that the company that services them does not have same day repair, and mails people checks for the dollar's worth of quarters they report to have lost.As to amenities here, there is a charge for wifi.  My room as no refridgerator or microwave.  It is roomy enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r435857576-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>435857576</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Never again!!!</t>
+  </si>
+  <si>
+    <t>Just another Motel 6 and the last one I will ever stay at.  Could not find anything else available for a softball tournament. Terrible beds, location, to much noise, smell, you name it.  Just your typical Motel 6.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r388442513-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>388442513</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Don't Leave The Light On</t>
+  </si>
+  <si>
+    <t>First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when...First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when we arrived at 4:00 pm until 5…would have gone back, but no thanks… Oh.. ONE CHAIR with a ½ table in the room.  The bathroom door and towel rack has paint all over it.  Seems when the “painters” painted…they didn’t worry about cleaning after themselves. There is a outside courtyard between the buildings.  Looks like a bad movie.  Sorry... won't be back, I'll pay the 20 bucks to feel safer. DON’T LEAVE THE LIGHT ON FOR ME…MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - Plano, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when...First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when we arrived at 4:00 pm until 5…would have gone back, but no thanks… Oh.. ONE CHAIR with a ½ table in the room.  The bathroom door and towel rack has paint all over it.  Seems when the “painters” painted…they didn’t worry about cleaning after themselves. There is a outside courtyard between the buildings.  Looks like a bad movie.  Sorry... won't be back, I'll pay the 20 bucks to feel safer. DON’T LEAVE THE LIGHT ON FOR ME…More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r381963552-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>381963552</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Who hires the Front Desk staff" OMG</t>
+  </si>
+  <si>
+    <t>Hello, My name is Maya
+I came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and...Hello, My name is MayaI came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and more housekeeping and renovate instead of just putting new beds a flat screen tv, than they would be Average on Trip Advisor and their reviews. Isabella do yourelf a favor and quit stop making the guest suffer because you dont want to work. Good Day  Ps. thanks again supervisorMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Hello, My name is Maya
+I came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and...Hello, My name is MayaI came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and more housekeeping and renovate instead of just putting new beds a flat screen tv, than they would be Average on Trip Advisor and their reviews. Isabella do yourelf a favor and quit stop making the guest suffer because you dont want to work. Good Day  Ps. thanks again supervisorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r256859255-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>256859255</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN</t>
+  </si>
+  <si>
+    <t>only came to this motel because of car trouble in the sleet as the other hotels were booked, even the motel had one last room. I was absolutely disgusted at the service and the lack of cleanliness in the room. Was just about to get under my sheets and saw blood stains. You will not want to take off your socks of even your shoes. Horrible. Horrible. I've cried because of how miserable I was. Much rather spend the night in my car</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r197069550-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>197069550</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Stayed here because it was hard to find a hotel with open rooms. The rooms were nice and somewhat upgrade but there were stains on the sheets and beds, bathtub didn't drain all that well, beds were very uncomfortable, and roaches crawling from behind the dresser. I will never stay here again and do not recommend anyone to.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r188695822-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>188695822</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Live ticks in bed, unsafe</t>
+  </si>
+  <si>
+    <t>they tried to put me to two non-smoking rooms that smelled like smoke. rooms 245 and 249.i ended up in room 245. sink was missing pieces and wouldn't drain. good indicator that housekeeping isn't doing anything because you would think one would notice broken sink if cleaning the room.was in bed 5 min, noticed rash on skin. turned over pillows to find live ticks. left immediately.hard to believe they are actually clearning the rooms between guests.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r186279441-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>186279441</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>not your typical motel 6</t>
+  </si>
+  <si>
+    <t>clean, quiet, comfortable room with comfortable bed... good wifi, needs fridge and microwave to enhance stay... no breakfast offered. did not note any sketchy folks hanging around like many motels of this type</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r133517532-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>133517532</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Sterile room &amp; sketchy exterior grounds</t>
+  </si>
+  <si>
+    <t>Checked in for just a short overnight stay as a half-way stop on my roadtrip.The room was very sterile, the hotel exterior grounds was very run down, and police were all over the place parked in the parking lot as if keeping an eye on occupants entering and leaving. Had I not been so exhausted from my long drive, I wouldn't have even bothered. After being in the room for less than an hour, I decided I just couldn't stay and left (didn't feel safe to stay the night and decided to continue my drive towards my destination). While I know "you get what you pay for" and this is a real budget hotel...this place was creepy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Checked in for just a short overnight stay as a half-way stop on my roadtrip.The room was very sterile, the hotel exterior grounds was very run down, and police were all over the place parked in the parking lot as if keeping an eye on occupants entering and leaving. Had I not been so exhausted from my long drive, I wouldn't have even bothered. After being in the room for less than an hour, I decided I just couldn't stay and left (didn't feel safe to stay the night and decided to continue my drive towards my destination). While I know "you get what you pay for" and this is a real budget hotel...this place was creepy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r122872810-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>122872810</t>
+  </si>
+  <si>
+    <t>01/10/2012</t>
+  </si>
+  <si>
+    <t>Not sure how i like the remodeled rooms</t>
+  </si>
+  <si>
+    <t>Stayed here Sunday June 8th.  Check in fast and curtious. They didn't have a room with one bed available but got a room with 2 beds same price.  Got to the room and it was one of the new remodeled rooms with fake wood floors and flat screen tv.  The room was clean and in order. The only problem was it was a smoking room and had no ashtrays.  Called the front desk and they told me to com to the office and get one.  The beds were very hard and did not get a good nights sleep.  Also with the floors the way they are there is a  lot of echo in the room that makes it difficult to hear and the room stays much colder then one with carpeting.  One other thing i do not recommend using the menu in the room to get food it was called dinning in.  They are a middle man for a local Italian place and up charge a lot for the same thing you can get by calling the place direct.  Overall not a bad stay and some of you may like the new rooms i am just still undecided on them.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed here Sunday June 8th.  Check in fast and curtious. They didn't have a room with one bed available but got a room with 2 beds same price.  Got to the room and it was one of the new remodeled rooms with fake wood floors and flat screen tv.  The room was clean and in order. The only problem was it was a smoking room and had no ashtrays.  Called the front desk and they told me to com to the office and get one.  The beds were very hard and did not get a good nights sleep.  Also with the floors the way they are there is a  lot of echo in the room that makes it difficult to hear and the room stays much colder then one with carpeting.  One other thing i do not recommend using the menu in the room to get food it was called dinning in.  They are a middle man for a local Italian place and up charge a lot for the same thing you can get by calling the place direct.  Overall not a bad stay and some of you may like the new rooms i am just still undecided on them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r115986480-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>115986480</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Good place to stay at economical rates</t>
+  </si>
+  <si>
+    <t>Inn was clean and well kept. Staff was very helpful, especially Tameka, who went out of her way to help us. Only drawback was that WiFi was spotty coverage and some rooms had poor or no service.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r6569488-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>6569488</t>
+  </si>
+  <si>
+    <t>01/08/2007</t>
+  </si>
+  <si>
+    <t>Good when new, now needs help</t>
+  </si>
+  <si>
+    <t>This was the second time we've booked this place.  The room itself was musty/moldy smelling.  You don't want to take your shoes off in the room; the dark carpet was sticky with visible stains everywhere.  I understand a small pet can stay free at all Motel 6's, so you can imagine when my dog smelled the carpet it hypnotized him.  I imagine there's plenty of urine soaked in it.  During our visit the motel was booked full.  There were a lot of folks out of the woodworks staying here, some apparently "between homes."  Our next door neighbor for the night was obsessed with chirping their elaborate car alarm every 5-10 minutes for 3 hrs into the evening.  So why would we book a place like this a second time?  Well the first time was around 2000, and our luck had it that it was a new motel in good condition.  Not anymore!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>This was the second time we've booked this place.  The room itself was musty/moldy smelling.  You don't want to take your shoes off in the room; the dark carpet was sticky with visible stains everywhere.  I understand a small pet can stay free at all Motel 6's, so you can imagine when my dog smelled the carpet it hypnotized him.  I imagine there's plenty of urine soaked in it.  During our visit the motel was booked full.  There were a lot of folks out of the woodworks staying here, some apparently "between homes."  Our next door neighbor for the night was obsessed with chirping their elaborate car alarm every 5-10 minutes for 3 hrs into the evening.  So why would we book a place like this a second time?  Well the first time was around 2000, and our luck had it that it was a new motel in good condition.  Not anymore!!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +936,831 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_564.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_564.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lulu D</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Kay H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r539736617-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -211,6 +217,9 @@
 The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my...This location is a bargain at $43 per night. However, the trade off is more than lack of amenities. It may be also lack security.The first time I did laundry here, a man resembling my acquaintance, Tremaine Clark, in stature and build, rushed past me as I entered the door, addressed me as, "Sweetheart" and proceeded to the vending machine with questions about quarters.I left the room that he clearly had no key for, and waited and watched until he left the area with the machines.When I finished my laundry after having left it unattended, I found a pair of men's underwear in the dryer which I definitely hadn't put there.The second time I did laundry from 10:00-12:00 on Wednesday, November 8, there was a parade of about 5 different suspicious acting individuals.  People in the laundry room talking to me and not doing laundry, and trying to get in without a key and pacing before leaving.  The owner agreed to review the video tapes of this session, but did not agree that people carrying clean clothes on their arm in the laundry and insisting on speaking with me, or rummaging through machines having brought no clothes to wash at all, seemed in any way suspicious.The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my first time to find laundry machines in a Motel 6 that weren't working correctly, so I found out that the company that services them does not have same day repair, and mails people checks for the dollar's worth of quarters they report to have lost.As to amenities here, there is a charge for wifi.  My room as no refridgerator or microwave.  It is roomy enough.More</t>
   </si>
   <si>
+    <t>TylerTank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r435857576-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
     <t>Just another Motel 6 and the last one I will ever stay at.  Could not find anything else available for a softball tournament. Terrible beds, location, to much noise, smell, you name it.  Just your typical Motel 6.</t>
   </si>
   <si>
+    <t>Diane L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r388442513-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -254,6 +266,9 @@
   </si>
   <si>
     <t>First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when...First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when we arrived at 4:00 pm until 5…would have gone back, but no thanks… Oh.. ONE CHAIR with a ½ table in the room.  The bathroom door and towel rack has paint all over it.  Seems when the “painters” painted…they didn’t worry about cleaning after themselves. There is a outside courtyard between the buildings.  Looks like a bad movie.  Sorry... won't be back, I'll pay the 20 bucks to feel safer. DON’T LEAVE THE LIGHT ON FOR ME…More</t>
+  </si>
+  <si>
+    <t>Tomaya H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r381963552-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -282,6 +297,9 @@
 I came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and...Hello, My name is MayaI came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and more housekeeping and renovate instead of just putting new beds a flat screen tv, than they would be Average on Trip Advisor and their reviews. Isabella do yourelf a favor and quit stop making the guest suffer because you dont want to work. Good Day  Ps. thanks again supervisorMore</t>
   </si>
   <si>
+    <t>collegegirl2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r256859255-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>only came to this motel because of car trouble in the sleet as the other hotels were booked, even the motel had one last room. I was absolutely disgusted at the service and the lack of cleanliness in the room. Was just about to get under my sheets and saw blood stains. You will not want to take off your socks of even your shoes. Horrible. Horrible. I've cried because of how miserable I was. Much rather spend the night in my car</t>
   </si>
   <si>
+    <t>71redgirl13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r197069550-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Memphian T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r188695822-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>uckbuck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r186279441-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>travelcurrent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r133517532-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>Checked in for just a short overnight stay as a half-way stop on my roadtrip.The room was very sterile, the hotel exterior grounds was very run down, and police were all over the place parked in the parking lot as if keeping an eye on occupants entering and leaving. Had I not been so exhausted from my long drive, I wouldn't have even bothered. After being in the room for less than an hour, I decided I just couldn't stay and left (didn't feel safe to stay the night and decided to continue my drive towards my destination). While I know "you get what you pay for" and this is a real budget hotel...this place was creepy.More</t>
   </si>
   <si>
+    <t>ls6436</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r122872810-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>Stayed here Sunday June 8th.  Check in fast and curtious. They didn't have a room with one bed available but got a room with 2 beds same price.  Got to the room and it was one of the new remodeled rooms with fake wood floors and flat screen tv.  The room was clean and in order. The only problem was it was a smoking room and had no ashtrays.  Called the front desk and they told me to com to the office and get one.  The beds were very hard and did not get a good nights sleep.  Also with the floors the way they are there is a  lot of echo in the room that makes it difficult to hear and the room stays much colder then one with carpeting.  One other thing i do not recommend using the menu in the room to get food it was called dinning in.  They are a middle man for a local Italian place and up charge a lot for the same thing you can get by calling the place direct.  Overall not a bad stay and some of you may like the new rooms i am just still undecided on them.More</t>
   </si>
   <si>
+    <t>Greenfrogtrike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r115986480-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -415,6 +451,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>T_in_H-town</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r6569488-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -940,43 +979,47 @@
       <c r="A2" t="n">
         <v>11251</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -990,50 +1033,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11251</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>85402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1053,41 +1100,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11251</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169325</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -1106,50 +1157,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11251</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>17731</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1167,56 +1222,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11251</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1234,41 +1293,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11251</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169327</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1297,50 +1360,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11251</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1364,50 +1431,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11251</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1431,50 +1502,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11251</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169330</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1498,50 +1573,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11251</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1565,50 +1644,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11251</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1628,50 +1711,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11251</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>74274</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1691,50 +1778,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11251</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1758,7 +1849,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_564.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_564.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Lulu D</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r596238564-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>99353</t>
+  </si>
+  <si>
+    <t>596238564</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Affordable accomodations for the price and location</t>
+  </si>
+  <si>
+    <t>I have stayed here a number of times while visiting the Plano area.  It has its ups and downs but I have always had good service.  Parking is probably the biggest drawback as it shares parking with a popular restaurant.  Be aware that this is on a very busy freeway with non-stop traffic 24/7.  Would stay with again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r584667400-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>584667400</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quite Surprised </t>
+  </si>
+  <si>
+    <t>It’s been years since I’ve stayed at a Motel 6 &amp; for good reason......we all know they aren’t that great. That is.....until now! Boy oh boy have they changed. No more stinky rooms with what felt like secondhand beds. It seems they have all had a facelift with fabulous results. I slept in the most comfortable king bed  Did I just say that?! No more carpet in the rooms either. They have put in a faux hardwood floor that feels as if you’re walking on a cloud. And on top of that, a large flatscreen tv to enjoy. I would definitely stay at Motel 6 again now that they have upgraded their facilities. Very enjoyable stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>It’s been years since I’ve stayed at a Motel 6 &amp; for good reason......we all know they aren’t that great. That is.....until now! Boy oh boy have they changed. No more stinky rooms with what felt like secondhand beds. It seems they have all had a facelift with fabulous results. I slept in the most comfortable king bed  Did I just say that?! No more carpet in the rooms either. They have put in a faux hardwood floor that feels as if you’re walking on a cloud. And on top of that, a large flatscreen tv to enjoy. I would definitely stay at Motel 6 again now that they have upgraded their facilities. Very enjoyable stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r583003980-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>583003980</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Happy Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 days back in September.Great customer service at the desk, checked into the room and was very happy.Very basic, but clean. No complaints.It was very close to the train station and highway too</t>
+  </si>
+  <si>
+    <t>September 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r567781259-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>99353</t>
-  </si>
-  <si>
     <t>567781259</t>
   </si>
   <si>
@@ -178,12 +232,6 @@
   </si>
   <si>
     <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Kay H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r539736617-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -217,9 +265,6 @@
 The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my...This location is a bargain at $43 per night. However, the trade off is more than lack of amenities. It may be also lack security.The first time I did laundry here, a man resembling my acquaintance, Tremaine Clark, in stature and build, rushed past me as I entered the door, addressed me as, "Sweetheart" and proceeded to the vending machine with questions about quarters.I left the room that he clearly had no key for, and waited and watched until he left the area with the machines.When I finished my laundry after having left it unattended, I found a pair of men's underwear in the dryer which I definitely hadn't put there.The second time I did laundry from 10:00-12:00 on Wednesday, November 8, there was a parade of about 5 different suspicious acting individuals.  People in the laundry room talking to me and not doing laundry, and trying to get in without a key and pacing before leaving.  The owner agreed to review the video tapes of this session, but did not agree that people carrying clean clothes on their arm in the laundry and insisting on speaking with me, or rummaging through machines having brought no clothes to wash at all, seemed in any way suspicious.The thing about this laundry facility is that is is a highly visible glass enclosure.  It also features machines serviced by a third party vendor, CSC SERVICEWorks.  This is my first time to find laundry machines in a Motel 6 that weren't working correctly, so I found out that the company that services them does not have same day repair, and mails people checks for the dollar's worth of quarters they report to have lost.As to amenities here, there is a charge for wifi.  My room as no refridgerator or microwave.  It is roomy enough.More</t>
   </si>
   <si>
-    <t>TylerTank</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r435857576-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -235,7 +280,46 @@
     <t>Just another Motel 6 and the last one I will ever stay at.  Could not find anything else available for a softball tournament. Terrible beds, location, to much noise, smell, you name it.  Just your typical Motel 6.</t>
   </si>
   <si>
-    <t>Diane L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r429837996-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>429837996</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Hispanic staff member in the front verrrrry rude chewing gum loudly she should not be in the front working! African American staff member in front had a great experience with cleaning staff! Manager white male seems to work hard all day . I guess it was an okay stay</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r419013715-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>419013715</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Do Not Book Here</t>
+  </si>
+  <si>
+    <t>I booked a room for four days the night prior to my scheduled visit.  I showed up at 4:30 PM I was told there were no clean rooms available come back in 30 minutes, I waited an hour and I was told there were still no rooms available.  The woman at the front desk was rude and did not seem to care at all and I asked her to cancel my reservation.  I called customer service to make sure she cancelled my reservation and she did not do it and customer relations cancelled it over the phone.  I ended up going to LaQuinta down the road and paid more money at the last minute.  What I encountered was beyond pathetic and I would not recommend this motel to anybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I booked a room for four days the night prior to my scheduled visit.  I showed up at 4:30 PM I was told there were no clean rooms available come back in 30 minutes, I waited an hour and I was told there were still no rooms available.  The woman at the front desk was rude and did not seem to care at all and I asked her to cancel my reservation.  I called customer service to make sure she cancelled my reservation and she did not do it and customer relations cancelled it over the phone.  I ended up going to LaQuinta down the road and paid more money at the last minute.  What I encountered was beyond pathetic and I would not recommend this motel to anybody.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r388442513-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -266,9 +350,6 @@
   </si>
   <si>
     <t>First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when...First, the room is not "dirty"... doesn't smell... No bugs. Bed “not bad”. The AC was loud enough so no noise from the highway or neighbors. No comforter or quilt on the bed.  Just a blanket. No rug in the room anywhere.  It’s all laminate and tile. The walls have NOTHING on them. (not important, but really? looks like a hospital room.) Nothing but a bucket for ice.  No microwave, or frig. I get it... 55.00 is cheap.  You get what you pay for.  My husband took the vent out of the AC, which was dirty.  Started cleaning it in the sink, but the sink doesn’t drain.  The lights in the bathroom over the toilet was half working. The toilet paper holder was broken. The vent in the bathroom (isn’t a vent anymore) just the cover painted over…so no fan.  the TV,  after using the remote for 3 minutes, the batteries went dead.  Two doors down, saw a rat hotel.  Big one outside their door.  Really?    The people hanging around the motel were a bit scary.  I was wondering if they lived here.  There is trash all over the building, hundreds of cigarette butts …  and the ice machine? Looks like it's 50 years old, rusty, filthy....The pool is nice! Looks new and very clean. Hardly any lounges…maybe 5 for the entire pool. Problem is, dicey people are all over just standing around… Ended up going to the pool when we arrived at 4:00 pm until 5…would have gone back, but no thanks… Oh.. ONE CHAIR with a ½ table in the room.  The bathroom door and towel rack has paint all over it.  Seems when the “painters” painted…they didn’t worry about cleaning after themselves. There is a outside courtyard between the buildings.  Looks like a bad movie.  Sorry... won't be back, I'll pay the 20 bucks to feel safer. DON’T LEAVE THE LIGHT ON FOR ME…More</t>
-  </si>
-  <si>
-    <t>Tomaya H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r381963552-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -290,16 +371,10 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Hello, My name is Maya
 I came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and...Hello, My name is MayaI came to visit a relative in Plano and stayed here for a one night stay. I work for a motel and Im currently at a four diamond hotel now. Front desk is the first people you see when you arrive appearance and customer service is the key to reeling in guest. Isabella who is not the example of good guest service,  was very rude , inpatient, didnt know her job. she had to call her supervisor to figure out that rooms was clean and ready to check in. She talk so ignorant and unprofessional, popping her gum and hollering all over the radio for the supervisor, i thought i was in a low budget movie. It was unreal , as if she didnt take any pride in here job and didnt give a damn about the guest needs, when we spending our money. Now i will say Her supervisor, dont remember the name short black lady, very nice patient calm and understanding, came right on in and gave us exactly what we needed while explaining the the tough situation they were in. The rooms was ok, one of the most updated Motel 6 ive seen but the doors and walls still rusty and raggedy.  Police was escorting someone out of the motel with a pink slip and they came back 3 times during the stay. Overall if they get better front desk staff and more housekeeping and renovate instead of just putting new beds a flat screen tv, than they would be Average on Trip Advisor and their reviews. Isabella do yourelf a favor and quit stop making the guest suffer because you dont want to work. Good Day  Ps. thanks again supervisorMore</t>
   </si>
   <si>
-    <t>collegegirl2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r256859255-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -315,7 +390,50 @@
     <t>only came to this motel because of car trouble in the sleet as the other hotels were booked, even the motel had one last room. I was absolutely disgusted at the service and the lack of cleanliness in the room. Was just about to get under my sheets and saw blood stains. You will not want to take off your socks of even your shoes. Horrible. Horrible. I've cried because of how miserable I was. Much rather spend the night in my car</t>
   </si>
   <si>
-    <t>71redgirl13</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r216671997-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>216671997</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Considering we paid $45 for this room, we weren't expecting much.  Pulling up outside in the daylight, we were on edge.  There were sketchy people loitering all the way around the hotel.  The lady at the desk was friendly and helpful, no complaints there.The room smelled like a combination of wet dog and cigarette smoke, even though it was supposed to be a non-smoking room.  The hotel was supposedly remodeled in 2012, it's obvious they used bottom of the line materials throughout.  The mattress was very uncomfortable, as were the pillows.  It wasn't what I consider 'clean' but it was cleaner than I expected, honestly, given the exterior of the property.  We were on the back side of the hotel, so there was no road noise, nor did we have noisy neighbors.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Considering we paid $45 for this room, we weren't expecting much.  Pulling up outside in the daylight, we were on edge.  There were sketchy people loitering all the way around the hotel.  The lady at the desk was friendly and helpful, no complaints there.The room smelled like a combination of wet dog and cigarette smoke, even though it was supposed to be a non-smoking room.  The hotel was supposedly remodeled in 2012, it's obvious they used bottom of the line materials throughout.  The mattress was very uncomfortable, as were the pillows.  It wasn't what I consider 'clean' but it was cleaner than I expected, honestly, given the exterior of the property.  We were on the back side of the hotel, so there was no road noise, nor did we have noisy neighbors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r203584868-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>203584868</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Loyal Customer... Treated badly...</t>
+  </si>
+  <si>
+    <t>Well I been coming to this hotel since I moved back from Pennslyvania before I left to go back to PA, I would come here always on my days off from work, I work as a personal assistant and nanny and need to get away on my time off. I met this wonderful worker here named Kevitta sadly she does not work here anymore and that's a shame she is the reason I liked this Motel.
+Anyways, Motel 6 knows my circumstances so they always check me in whenever I get here because they know the value of someones days off, I do not have a car so I have a lot of stuff I bring with me on my days off. My boss always drops me off she can't have all day to find time to bring me here, THEY KNEW THIS since I been coming here.
+I have spent probably thousands and thousands and thousands of dollars here just to be treated bad? It's horrible. I reserved a room with a fridge 2 days in advance and I come and NO ROOM with fridge is available at the time. I had 2 pints of Milk, and ice cream, I had to throw the milk away because I had no fridge. The thing is I can NOT always afford to pay for 3 nights with me just bringing my stuff the night before and leaving it there until the...Well I been coming to this hotel since I moved back from Pennslyvania before I left to go back to PA, I would come here always on my days off from work, I work as a personal assistant and nanny and need to get away on my time off. I met this wonderful worker here named Kevitta sadly she does not work here anymore and that's a shame she is the reason I liked this Motel.Anyways, Motel 6 knows my circumstances so they always check me in whenever I get here because they know the value of someones days off, I do not have a car so I have a lot of stuff I bring with me on my days off. My boss always drops me off she can't have all day to find time to bring me here, THEY KNEW THIS since I been coming here.I have spent probably thousands and thousands and thousands of dollars here just to be treated bad? It's horrible. I reserved a room with a fridge 2 days in advance and I come and NO ROOM with fridge is available at the time. I had 2 pints of Milk, and ice cream, I had to throw the milk away because I had no fridge. The thing is I can NOT always afford to pay for 3 nights with me just bringing my stuff the night before and leaving it there until the next morning, I can not always do that like I did a time before.On top of that, the first night I was here I was woken up at 2:30 AM because of a MAN AND WOMAN screaming loudly outside, NO ONE did nothing and they went on like that for at least 20 minutes. I find that horrible.I used to love this place now I see they do not care about their customers, I am taking a BREAK from this motel maybe they do not want LOYAL customers anymore I don't know. But its sad that I spent a lot of money before I moved back to PA and then when I came back to Texas, I guess they just don't seem to care about their customers.I can not always afford to pay for a night when I am not at the hotel just so I can get a FRIDGE . Maybe they have money like that every week but I do not. They know my circumstances also, I can not ride a bus and lug ALL my belongings on my day off, and my boss can only drop me off at CERTAIN times.I am done, but VERY VERY VERY DISAPPOINTED IN Motel 6 . I used to LOVE this place now right now I just am not very happy at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Well I been coming to this hotel since I moved back from Pennslyvania before I left to go back to PA, I would come here always on my days off from work, I work as a personal assistant and nanny and need to get away on my time off. I met this wonderful worker here named Kevitta sadly she does not work here anymore and that's a shame she is the reason I liked this Motel.
+Anyways, Motel 6 knows my circumstances so they always check me in whenever I get here because they know the value of someones days off, I do not have a car so I have a lot of stuff I bring with me on my days off. My boss always drops me off she can't have all day to find time to bring me here, THEY KNEW THIS since I been coming here.
+I have spent probably thousands and thousands and thousands of dollars here just to be treated bad? It's horrible. I reserved a room with a fridge 2 days in advance and I come and NO ROOM with fridge is available at the time. I had 2 pints of Milk, and ice cream, I had to throw the milk away because I had no fridge. The thing is I can NOT always afford to pay for 3 nights with me just bringing my stuff the night before and leaving it there until the...Well I been coming to this hotel since I moved back from Pennslyvania before I left to go back to PA, I would come here always on my days off from work, I work as a personal assistant and nanny and need to get away on my time off. I met this wonderful worker here named Kevitta sadly she does not work here anymore and that's a shame she is the reason I liked this Motel.Anyways, Motel 6 knows my circumstances so they always check me in whenever I get here because they know the value of someones days off, I do not have a car so I have a lot of stuff I bring with me on my days off. My boss always drops me off she can't have all day to find time to bring me here, THEY KNEW THIS since I been coming here.I have spent probably thousands and thousands and thousands of dollars here just to be treated bad? It's horrible. I reserved a room with a fridge 2 days in advance and I come and NO ROOM with fridge is available at the time. I had 2 pints of Milk, and ice cream, I had to throw the milk away because I had no fridge. The thing is I can NOT always afford to pay for 3 nights with me just bringing my stuff the night before and leaving it there until the next morning, I can not always do that like I did a time before.On top of that, the first night I was here I was woken up at 2:30 AM because of a MAN AND WOMAN screaming loudly outside, NO ONE did nothing and they went on like that for at least 20 minutes. I find that horrible.I used to love this place now I see they do not care about their customers, I am taking a BREAK from this motel maybe they do not want LOYAL customers anymore I don't know. But its sad that I spent a lot of money before I moved back to PA and then when I came back to Texas, I guess they just don't seem to care about their customers.I can not always afford to pay for a night when I am not at the hotel just so I can get a FRIDGE . Maybe they have money like that every week but I do not. They know my circumstances also, I can not ride a bus and lug ALL my belongings on my day off, and my boss can only drop me off at CERTAIN times.I am done, but VERY VERY VERY DISAPPOINTED IN Motel 6 . I used to LOVE this place now right now I just am not very happy at all.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r197069550-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -336,9 +454,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Memphian T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r188695822-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -357,9 +472,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>uckbuck</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r186279441-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -378,7 +490,40 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>travelcurrent</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r182631498-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>182631498</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>very surprised for motel 6</t>
+  </si>
+  <si>
+    <t>I was very surprised this was a Motel 6 almost went outside to make sure. I had to stay here since I couldn't get a hotel downtown Dallas. These rooms were nice with the hardwood looking floors and flat screen TV the bathroom sink was real nice too. I think is a real big step for a Motel 6. I normal don't stay in Motel 6 but this was pretty good the outside of the building was nice It was close the light rail system "Dart" just about 2 blocks from motel. All the other motel 6 was just very bare rooms but this was not. these rooms are clean and served the purpose. would stay here again if I can't stay in my normal hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I was very surprised this was a Motel 6 almost went outside to make sure. I had to stay here since I couldn't get a hotel downtown Dallas. These rooms were nice with the hardwood looking floors and flat screen TV the bathroom sink was real nice too. I think is a real big step for a Motel 6. I normal don't stay in Motel 6 but this was pretty good the outside of the building was nice It was close the light rail system "Dart" just about 2 blocks from motel. All the other motel 6 was just very bare rooms but this was not. these rooms are clean and served the purpose. would stay here again if I can't stay in my normal hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r158654245-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>158654245</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Ghetto</t>
+  </si>
+  <si>
+    <t>It's not safe here because they let any and everybody rent a room.It's noisy and there's illegal activities. Such as drugs &amp; prostitution. the police and staff are in on it.It's not worth the price because there's no refrigerator, nor is there a microwave.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r133517532-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -402,9 +547,6 @@
     <t>Checked in for just a short overnight stay as a half-way stop on my roadtrip.The room was very sterile, the hotel exterior grounds was very run down, and police were all over the place parked in the parking lot as if keeping an eye on occupants entering and leaving. Had I not been so exhausted from my long drive, I wouldn't have even bothered. After being in the room for less than an hour, I decided I just couldn't stay and left (didn't feel safe to stay the night and decided to continue my drive towards my destination). While I know "you get what you pay for" and this is a real budget hotel...this place was creepy.More</t>
   </si>
   <si>
-    <t>ls6436</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r122872810-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -429,9 +571,6 @@
     <t>Stayed here Sunday June 8th.  Check in fast and curtious. They didn't have a room with one bed available but got a room with 2 beds same price.  Got to the room and it was one of the new remodeled rooms with fake wood floors and flat screen tv.  The room was clean and in order. The only problem was it was a smoking room and had no ashtrays.  Called the front desk and they told me to com to the office and get one.  The beds were very hard and did not get a good nights sleep.  Also with the floors the way they are there is a  lot of echo in the room that makes it difficult to hear and the room stays much colder then one with carpeting.  One other thing i do not recommend using the menu in the room to get food it was called dinning in.  They are a middle man for a local Italian place and up charge a lot for the same thing you can get by calling the place direct.  Overall not a bad stay and some of you may like the new rooms i am just still undecided on them.More</t>
   </si>
   <si>
-    <t>Greenfrogtrike</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r115986480-Motel_6_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -453,7 +592,40 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>T_in_H-town</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r82717107-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>82717107</t>
+  </si>
+  <si>
+    <t>10/09/2010</t>
+  </si>
+  <si>
+    <t>a nice place for tight budget</t>
+  </si>
+  <si>
+    <t>I had an business meeting at Plano area last year. Since the hotel was out of my own pocket, I really did some research before I went there. The price was good, of course. What surprised me is the quality. Clean room, quiet, with a lot of space for my luggage. I will recommend it to my friends.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r66253189-Motel_6_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>66253189</t>
+  </si>
+  <si>
+    <t>06/02/2010</t>
+  </si>
+  <si>
+    <t>Outstanding value</t>
+  </si>
+  <si>
+    <t>Very clean and furnishings appear to be fairly new.  No amenities....not even a clock or kleenex.  Staff very helpful and pleasant.  Would stay again.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d99353-r6569488-Motel_6_Dallas_Plano-Plano_Texas.html</t>
@@ -979,172 +1151,160 @@
       <c r="A2" t="n">
         <v>11251</v>
       </c>
-      <c r="B2" t="n">
-        <v>169324</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11251</v>
       </c>
-      <c r="B3" t="n">
-        <v>85402</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11251</v>
       </c>
-      <c r="B4" t="n">
-        <v>169325</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1157,135 +1317,119 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11251</v>
       </c>
-      <c r="B5" t="n">
-        <v>17731</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11251</v>
       </c>
-      <c r="B6" t="n">
-        <v>169326</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
         <v>3</v>
       </c>
-      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1293,275 +1437,225 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11251</v>
       </c>
-      <c r="B7" t="n">
-        <v>169327</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11251</v>
       </c>
-      <c r="B8" t="n">
-        <v>169328</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11251</v>
       </c>
-      <c r="B9" t="n">
-        <v>169329</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11251</v>
       </c>
-      <c r="B10" t="n">
-        <v>169330</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1570,73 +1664,67 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11251</v>
       </c>
-      <c r="B11" t="n">
-        <v>169331</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
         <v>3</v>
       </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1644,66 +1732,62 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11251</v>
       </c>
-      <c r="B12" t="n">
-        <v>169332</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" t="s">
-        <v>131</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1711,62 +1795,58 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11251</v>
       </c>
-      <c r="B13" t="n">
-        <v>74274</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -1778,70 +1858,58 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11251</v>
       </c>
-      <c r="B14" t="n">
-        <v>169333</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1849,7 +1917,732 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
         <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
